--- a/output/excel/single_Ghost Rider 4S1P ATL CosMX HPT RS 20HK2 TUV CDF.xlsx
+++ b/output/excel/single_Ghost Rider 4S1P ATL CosMX HPT RS 20HK2 TUV CDF.xlsx
@@ -542,7 +542,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>頁碼採絕對 1-based。文件僅提供額定容量與額定能量，未明確標示 typical/normal 容量與能量，故相關欄位為 null。主要語言為英文。</t>
+          <t>頁碼採絕對 1-based。文件僅提供額定容量與額定能量，未提供典型/正常容量與能量，因此對應欄位為 null。主要語言為英文。</t>
         </is>
       </c>
     </row>
